--- a/medicine/Sexualité et sexologie/Shannon_Tweed/Shannon_Tweed.xlsx
+++ b/medicine/Sexualité et sexologie/Shannon_Tweed/Shannon_Tweed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Shannon Tweed est une productrice, actrice et mannequin de charme canadienne, née le 10 mars 1957 à St. John's, à Terre-Neuve-et-Labrador (Canada).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La troisième de sept enfants, elle a trois frères et trois sœurs.
 Elle a joué souvent dans des films de série B, qui seront classés comme thrillers érotiques, n'hésitant pas à se dénuder, surtout dans les débuts de sa carrière.
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Comme actrice
-1982 : Drop-Out Father (téléfilm) : belle femme
+          <t>Comme actrice</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1982 : Drop-Out Father (téléfilm) : belle femme
 1982 : Falcon Crest (série télévisée) : Diana Hunter (21 épisodes, 1982-1983, VF : Anne Kerylen)
 1983 : D'origine inconnue (Of Unknown Origin) : Meg Hughes (autre titre : Terreur à domicile)
 1984 : Shérif, fais-moi peur (The Dukes of Hazzard) (série TV) (saison 7, épisode 2 "Le musée de Waylon Jennings") : Betty Jo
@@ -575,9 +594,43 @@
 2001 : Dead Sexy : Kate McBain (vidéo)
 2010 : United States of Tara (série télévisée) : Knatasha Kightblade (saison 2, épisode 7)
 2012 : Republic of Doyle (série télévisée) : Frances Lemont (saison 3, épisode 1)
-2013 : Ex-Wives of Rock (série télévisée) : la narratrice (5 épisodes)
-Comme productrice
-1995 : Comportement indécent (Indecent Behavior III)
+2013 : Ex-Wives of Rock (série télévisée) : la narratrice (5 épisodes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Shannon_Tweed</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Shannon_Tweed</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Filmographie partielle</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Comme productrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1995 : Comportement indécent (Indecent Behavior III)
 1997 : Human Desires (autre titre : Indecent Behavior 4)
 1998 : Naked Lies
 2000 : The Rowdy Girls
